--- a/biology/Zoologie/Iranolacerta_brandtii/Iranolacerta_brandtii.xlsx
+++ b/biology/Zoologie/Iranolacerta_brandtii/Iranolacerta_brandtii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Iranolacerta brandtii est une espèce de sauriens de la famille des Lacertidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Iranolacerta brandtii est une espèce de sauriens de la famille des Lacertidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre dans l'ouest de l'Iran et en Azerbaïdjan[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre dans l'ouest de l'Iran et en Azerbaïdjan.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (24 janvier 2013)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (24 janvier 2013) :
 Iranolacerta brandtii brandtii (De Filippi, 1863)
 Iranolacerta brandtii esfahanica (Nilson, Rastegar-Pouyani, Rastegar-Pouyani &amp; Andrén, 2003)</t>
         </is>
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée l'honneur de Johann Friedrich von Brandt (1802-1879)[1], le naturaliste russe d'origine allemande.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée l'honneur de Johann Friedrich von Brandt (1802-1879), le naturaliste russe d'origine allemande.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>De Filippi, 1863 : Nuove o poco note specie di animali vertebrati raccolte in un viaggio in Persia. Archivio per la zoologia, l'anatomia e la fisiologia, vol. 2, p. 377-394 (texte intégral).
 Nilson, Rastegar-Pouyani, Rastegar-Pouyani &amp; Andrén, 2003 : Lacertas of south and central Zagros Mountains, Iran, with description of two new taxa. Russian Journal of Herpetology, vol. 10, no 1, p. 11-24 (texte intégral).</t>
